--- a/pred_ohlcv/54_21/2019-10-14 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 WAVES ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-5606.22341835</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-3760.66161835</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-3760.66161835</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-3760.66161835</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-4373.507118349999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-3733.56721835</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-3242.34601835</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-3242.34601835</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-3242.34601835</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-3242.34601835</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-3242.34601835</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-2588.40111835</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-2584.70971835</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-2591.40111835</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-2583.40111835</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-2585.40111835</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3774.29191835</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1581.29071835</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-3404.34081835</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1939.32681835</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>6344.78858165</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>13768.91168165</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>13768.91168165</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>13362.60348165</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>13810.29528165</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>14060.29528165</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>23688.41348165</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>26155.15938165</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>26155.15938165</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>26155.15938165</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>25945.15938165</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>25965.45748165</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>25965.45748165</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>25955.45748165</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>25955.45748165</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>26422.26738165</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>25176.13208165</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>24536.85658165</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>24752.91658165</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>23220.30518165</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>23347.33578165</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>24961.00098165</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>38135.84408164999</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>38135.84408164999</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>38960.05568165</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>43517.63038164999</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>44897.63038164999</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>44897.63038164999</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>44897.63038164999</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-14 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 WAVES ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-5606.22341835</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-3760.66161835</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-3760.66161835</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-3760.66161835</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-4373.507118349999</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-3733.56721835</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-3242.34601835</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-3242.34601835</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-3242.34601835</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-3242.34601835</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-3242.34601835</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-2588.40111835</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-2584.70971835</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-2591.40111835</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-2583.40111835</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-2585.40111835</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-2585.40111835</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3774.29191835</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3774.29191835</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1581.29071835</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1582.29071835</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-2475.33701835</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-2474.32901835</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-2479.32901835</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-2474.32901835</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2474.32901835</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-3404.34081835</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1939.32681835</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-2169.20341835</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-2126.34981835</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>6344.78858165</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>13768.91168165</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>13768.91168165</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>13362.60348165</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>13810.29528165</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>14060.29528165</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>17374.98868165</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>17349.36048165</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>17909.36048165</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>17909.36048165</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>12959.97808165</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>26155.15938165</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>25945.15938165</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>23347.33578165</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>24961.00098165</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>38135.84408164999</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>38135.84408164999</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>38960.05568165</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>43517.63038164999</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
